--- a/biology/Botanique/Xylopia_richardii/Xylopia_richardii.xlsx
+++ b/biology/Botanique/Xylopia_richardii/Xylopia_richardii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bois de banane ou Xylopia richardii Boivin ex Baill. est une espèce de la famille des annonacées, endémique de l'île de La Réunion et de l'île Maurice. Elle est la seule annonacée présente à La Réunion. Cette plante doit son nom vernaculaire à la forme de ses fruits qui sont regroupés en petites grappes, ressemblant à une main de banane en miniature.
 </t>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une autre espèce porte aussi ce nom vernaculaire, le Polyscias repanda.
-En milieu naturel, on trouve Xylopia richardii dans les forêts humides de basse à moyenne altitude, à Mare Longue, vers les Makes et dans les hauts de Sainte-Anne. L'espèce est protégée par l'arrêté du 27 octobre 2017[1].
+En milieu naturel, on trouve Xylopia richardii dans les forêts humides de basse à moyenne altitude, à Mare Longue, vers les Makes et dans les hauts de Sainte-Anne. L'espèce est protégée par l'arrêté du 27 octobre 2017.
 C'est un arbre de 7 à 12 m de hauteur, à rameaux glabrescents et robustes, cylindriques.
-Les feuilles sont simples, alternes, entières, coriaces, vert foncé et brillantes. Le pétiole est brun-rouge, le limbe elliptique. Les boutons floraux sont coniques, trigones, vert jaunâtre à jaunes[2],[3].
+Les feuilles sont simples, alternes, entières, coriaces, vert foncé et brillantes. Le pétiole est brun-rouge, le limbe elliptique. Les boutons floraux sont coniques, trigones, vert jaunâtre à jaunes,.
 La pulpe des fruits est aromatique, à faible odeur de gingembre et à saveur piquante.
 </t>
         </is>
@@ -546,10 +560,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au XIXe siècle, les esclaves consommaient les fruits comme condiment pour relever la saveur des aliments[2].
-Le bois de banane était autrefois utilisé pour la fabrication du bobre, instrument de musique traditionnelle de La Réunion[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au XIXe siècle, les esclaves consommaient les fruits comme condiment pour relever la saveur des aliments.
+Le bois de banane était autrefois utilisé pour la fabrication du bobre, instrument de musique traditionnelle de La Réunion.
 Aujourd'hui, du fait de son statut d'endémique, l'arbre est planté en ornement et en restauration écologique.
 </t>
         </is>
@@ -579,9 +595,11 @@
           <t>Autre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la commune des Avirons, on trouve un pont à une arche au-dessus de la Ravine du Ruisseau, le Pont banane, nommé ainsi parce qu'un spécimen poussait à proximité[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la commune des Avirons, on trouve un pont à une arche au-dessus de la Ravine du Ruisseau, le Pont banane, nommé ainsi parce qu'un spécimen poussait à proximité.
 </t>
         </is>
       </c>
